--- a/resources/data-imports/items/Armour.xlsx
+++ b/resources/data-imports/items/Armour.xlsx
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:61">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:61">
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="BI66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:61">
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="BI67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:61">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="BI68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:61">
@@ -15596,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="BI125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:61">
@@ -15703,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="BI126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:61">
@@ -15810,7 +15810,7 @@
         <v>0</v>
       </c>
       <c r="BI127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:61">
@@ -22286,7 +22286,7 @@
         <v>0</v>
       </c>
       <c r="BI188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:61">
@@ -22393,7 +22393,7 @@
         <v>0</v>
       </c>
       <c r="BI189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:61">
@@ -22500,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="BI190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:61">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="BI248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:61">
@@ -28753,7 +28753,7 @@
         <v>0</v>
       </c>
       <c r="BI249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:61">
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="BI250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:61">
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="BI311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:61">
@@ -35437,7 +35437,7 @@
         <v>0</v>
       </c>
       <c r="BI312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:61">
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="BI313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:61">
@@ -41488,7 +41488,7 @@
         <v>0</v>
       </c>
       <c r="BI369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:61">
@@ -41595,7 +41595,7 @@
         <v>0</v>
       </c>
       <c r="BI370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:61">
@@ -41702,7 +41702,7 @@
         <v>0</v>
       </c>
       <c r="BI371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:61">
